--- a/internalContent/DETraining/DXCUForms/Currciula_Request_Template.YellowBelt.xlsx
+++ b/internalContent/DETraining/DXCUForms/Currciula_Request_Template.YellowBelt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DXCWork\OneDrive - DXC Production\Projects\DXC\Digital Explorer\gitRepo\Digital-Explorer-Specs\internalContent\DETraining\DXCUForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_DBBDF810185C7C28A674106BF87D6BB31B0F524D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6691A7FD-6CFD-4166-810B-9595C965AD91}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_DBBDF810185C7C28A674106BF87D6BB31B0F524D" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FC687E18-97C8-401F-8E5C-CB04661F6CBB}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Curriculum Request Template</t>
   </si>
@@ -324,9 +324,6 @@
     <t>Path Name Goes Here</t>
   </si>
   <si>
-    <t>DXC Digital Explorer - White Belt</t>
-  </si>
-  <si>
     <t>David Stevens</t>
   </si>
   <si>
@@ -355,14 +352,35 @@
   </si>
   <si>
     <t>DXC Digital Explorer Trends - Overview</t>
-  </si>
-  <si>
-    <t>curra000000000004384</t>
   </si>
   <si>
     <t>The second stage curriculum for the DXC Digital Explorer platform.
 Present DXC digital viewpoint using the Digital Explorer playbooks, analyze your clients requirements within a workspace and create your own playbook based on the analyzed content.
 Access the Digital Explorer platform via https://digitalexplorer.dxc.com</t>
+  </si>
+  <si>
+    <t>00057809</t>
+  </si>
+  <si>
+    <t>00057779</t>
+  </si>
+  <si>
+    <t>00057793</t>
+  </si>
+  <si>
+    <t>00057761</t>
+  </si>
+  <si>
+    <t>00057711</t>
+  </si>
+  <si>
+    <t>00057758</t>
+  </si>
+  <si>
+    <t>00057756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DXC Digital Explorer Yellow Belt is awarded upon the successfully completion of the DXC Digital Explorer Yellow Belt training.  The award highlights the person’s ability to analyse content and identify the key digital challenges facing our clients and present these back via an online digital presentation. </t>
   </si>
 </sst>
 </file>
@@ -479,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -691,12 +709,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -744,13 +775,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -761,17 +809,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -780,6 +818,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1121,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
@@ -1135,41 +1176,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:11" ht="277.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D5" s="18"/>
@@ -1195,7 +1236,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,57 +1249,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:21" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="D5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1272,14 +1313,14 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1318,16 +1359,16 @@
       <c r="C8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
+      <c r="D8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1366,16 +1407,16 @@
       <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="D10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1404,16 +1445,16 @@
       <c r="C12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="D12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1449,7 +1490,7 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1460,7 +1501,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="34"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
       <c r="F15" s="18"/>
@@ -1470,7 +1511,7 @@
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="35"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="18"/>
@@ -1480,7 +1521,7 @@
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="35"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="18"/>
@@ -1517,7 +1558,9 @@
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="18"/>
+      <c r="D21" s="42" t="s">
+        <v>46</v>
+      </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1581,16 +1624,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="D5:K6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="D8:K8"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D12:K12"/>
     <mergeCell ref="A13:M13"/>
     <mergeCell ref="A9:M9"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="D5:K6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="D8:K8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" xr:uid="{2B36E08E-34B4-430E-936C-C50B882AD732}"/>
@@ -1603,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BV14"/>
+  <dimension ref="A1:BV13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,38 +1662,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:74" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:74" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
@@ -1743,18 +1786,18 @@
       <c r="BU6" s="3"/>
       <c r="BV6"/>
     </row>
-    <row r="7" spans="1:74" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1769,7 +1812,9 @@
       <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
@@ -1782,7 +1827,9 @@
       <c r="D9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1795,7 +1842,9 @@
       <c r="D10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
@@ -1808,7 +1857,9 @@
       <c r="D11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
@@ -1821,7 +1872,9 @@
       <c r="D12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -1834,20 +1887,9 @@
       <c r="D13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="20"/>
+      <c r="E13" s="21" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1855,9 +1897,18 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{EFB26728-327C-4785-8495-592250E4A3C7}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{505FBBDB-3785-49A1-B419-346D154E8DE6}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{73B44D01-89BA-4C1E-B3F0-1F4B79F39A84}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{FAEDA823-F99C-47EC-A1AB-7CF9C9F81742}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{7A136AC3-F67B-4E8A-A819-D76732D91DA6}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{248EA811-A23A-42FA-9A1A-42B19D96F19F}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{21264FE5-0478-48B0-91AD-206AAAE08853}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1879,38 +1930,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:74" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:74" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
@@ -2107,38 +2158,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:74" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:74" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:74" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
@@ -2317,6 +2368,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="18f211cb-e08d-4e65-a875-32590ca7bbf7" ContentTypeId="0x01010014A374DEA043E640B2891CD3FD4BCAD708" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <CSC_x0020_Classification xmlns="168e0357-5b39-4600-91c2-bfff6e896513">Low Sensitivity</CSC_x0020_Classification>
+    <a2fbff1def3e4d2da90f9f80ade6b5bb xmlns="168e0357-5b39-4600-91c2-bfff6e896513">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </a2fbff1def3e4d2da90f9f80ade6b5bb>
+    <TaxCatchAll xmlns="168e0357-5b39-4600-91c2-bfff6e896513"/>
+    <i197e11bdb404a658e317b56bc78a103 xmlns="168e0357-5b39-4600-91c2-bfff6e896513">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </i197e11bdb404a658e317b56bc78a103>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Human Resources" ma:contentTypeID="0x01010014A374DEA043E640B2891CD3FD4BCAD70800BDFCFBF54A14864FAB241807E98B033B" ma:contentTypeVersion="6" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="0aff45959f078fa713447e37682ace76">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="168e0357-5b39-4600-91c2-bfff6e896513" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9e2a67ec8827cdcba314ee323764ca07" ns2:_="">
     <xsd:import namespace="168e0357-5b39-4600-91c2-bfff6e896513"/>
@@ -2487,26 +2558,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <CSC_x0020_Classification xmlns="168e0357-5b39-4600-91c2-bfff6e896513">Low Sensitivity</CSC_x0020_Classification>
-    <a2fbff1def3e4d2da90f9f80ade6b5bb xmlns="168e0357-5b39-4600-91c2-bfff6e896513">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </a2fbff1def3e4d2da90f9f80ade6b5bb>
-    <TaxCatchAll xmlns="168e0357-5b39-4600-91c2-bfff6e896513"/>
-    <i197e11bdb404a658e317b56bc78a103 xmlns="168e0357-5b39-4600-91c2-bfff6e896513">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </i197e11bdb404a658e317b56bc78a103>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="18f211cb-e08d-4e65-a875-32590ca7bbf7" ContentTypeId="0x01010014A374DEA043E640B2891CD3FD4BCAD708" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2517,6 +2568,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495F855D-E72A-455D-9DC7-A27E021844F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20ABF9E-135C-47A7-A7A5-B3AC80E1AFC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="168e0357-5b39-4600-91c2-bfff6e896513"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F691F201-E157-4F75-B11F-1E576D83C734}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2534,30 +2609,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20ABF9E-135C-47A7-A7A5-B3AC80E1AFC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="168e0357-5b39-4600-91c2-bfff6e896513"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495F855D-E72A-455D-9DC7-A27E021844F0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2949405B-4E4E-45BE-91CC-0E8AF18AE539}">
   <ds:schemaRefs>
